--- a/11A/代码/data.xlsx
+++ b/11A/代码/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="11480" yWindow="-21140" windowWidth="19200" windowHeight="21060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="附件1" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -263,6 +263,22 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -334,8 +350,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -384,8 +408,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -662,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H322"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6171,7 +6203,7 @@
   <dimension ref="A1:I322"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -15496,8 +15528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B15:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>

--- a/11A/代码/data.xlsx
+++ b/11A/代码/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11480" yWindow="-21140" windowWidth="19200" windowHeight="21060" activeTab="2"/>
+    <workbookView xWindow="11480" yWindow="-21140" windowWidth="19200" windowHeight="21140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="附件1" sheetId="1" r:id="rId1"/>
@@ -350,8 +350,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -408,16 +420,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="21">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -695,7 +719,7 @@
   <dimension ref="A1:H322"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6203,7 +6227,7 @@
   <dimension ref="A1:I322"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I3"/>
+      <selection activeCell="B323" sqref="B323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -15528,8 +15552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B15:I19"/>
+    <sheetView tabSelected="1" zoomScale="199" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
